--- a/4_Daily Schedule/Daily_Schedule.xlsx
+++ b/4_Daily Schedule/Daily_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2023/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="14_{FB116758-B9B5-462E-BDDC-02E6CF788C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB983E4-9077-4E08-9C60-B172F0593E43}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="14_{FB116758-B9B5-462E-BDDC-02E6CF788C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33AD9614-92BC-4C9B-A47A-ACDFD1E455D6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1053">
   <si>
     <t>Date</t>
   </si>
@@ -4280,6 +4280,27 @@
     <t>Scaler Revise
 Scaler class - Tries
 Delegation - Reading</t>
+  </si>
+  <si>
+    <t>Scaler class - tries 2
+Scaler class - heaps 1</t>
+  </si>
+  <si>
+    <t>Lifion - iHUB integration</t>
+  </si>
+  <si>
+    <t>Scaler class - Heaps 1
+Scaler AM, HW
+Scaler class - Heaps 2
+Scaler AM</t>
+  </si>
+  <si>
+    <t>WFH</t>
+  </si>
+  <si>
+    <t>Scaler class - Greedy Algorithm
+Scaler AM,HW - Heaps 2
+Scaler AM - Greedy</t>
   </si>
 </sst>
 </file>
@@ -7474,9 +7495,9 @@
   <dimension ref="G1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7811,34 +7832,44 @@
         <v>1047</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G29" s="9">
         <v>24</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="H29" s="16" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>1044</v>
+      </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="G30" s="9">
         <v>25</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="H30" s="16" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>1049</v>
+      </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G31" s="9">
         <v>26</v>
       </c>
-      <c r="H31" s="17"/>
+      <c r="H31" s="16" t="s">
+        <v>1052</v>
+      </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>

--- a/4_Daily Schedule/Daily_Schedule.xlsx
+++ b/4_Daily Schedule/Daily_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2023/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="14_{FB116758-B9B5-462E-BDDC-02E6CF788C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33AD9614-92BC-4C9B-A47A-ACDFD1E455D6}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="14_{FB116758-B9B5-462E-BDDC-02E6CF788C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44DDE950-A671-4052-897E-37541E76164E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1065">
   <si>
     <t>Date</t>
   </si>
@@ -4301,6 +4301,69 @@
     <t>Scaler class - Greedy Algorithm
 Scaler AM,HW - Heaps 2
 Scaler AM - Greedy</t>
+  </si>
+  <si>
+    <t>scaler - backtracking 1
+Scaler AM HW</t>
+  </si>
+  <si>
+    <t>Scaler backtracking 2
+Scaler AM HW
+Read - delegation</t>
+  </si>
+  <si>
+    <t>Progress on Scaler
+Almost completed Java Abdul Bari
+Work:
+Progress on client central testing
+Doing well in SR triaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trees, Backtracking
+Complete Java Abdul Bari - FX
+Revise Scaler, Java AB
+SRs - Faster response time
+Lifion - iHUB integration
+Compass deliverables hands on, delegate to Tarak
+Progress on Scaler classes
+</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Good progress on Scaler
+Almost completed - Java AB
+Completed Ikigai book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost completed client central testing
+Lifion-iHUB testing should be started
+Send SRs report
+</t>
+  </si>
+  <si>
+    <t>May 29 - June 10</t>
+  </si>
+  <si>
+    <t>Complete Scaler backlogs
+Complete Revise - Java AB, Scaler
+Complete Client Central testing
+Start Lifion - iHUB testing</t>
+  </si>
+  <si>
+    <t>Scaler class - DP1
+Scaler AM HW - DP1
+Algorithms - AB</t>
+  </si>
+  <si>
+    <t>Scaler class - DP2
+Scaler AM, HW
+Scaler class - DP3</t>
   </si>
 </sst>
 </file>
@@ -5671,12 +5734,12 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B184FA5-A01E-46CA-B492-1B3A7AECB7A5}">
-  <dimension ref="D1:H17"/>
+  <dimension ref="D1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5936,15 +5999,32 @@
         <v>973</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="D17" s="36" t="s">
         <v>1033</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>1034</v>
       </c>
+      <c r="F17" s="35" t="s">
+        <v>1058</v>
+      </c>
       <c r="G17" s="35" t="s">
         <v>1035</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="D18" s="36" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -7495,9 +7575,9 @@
   <dimension ref="G1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7874,38 +7954,46 @@
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G32" s="9">
         <v>27</v>
       </c>
-      <c r="H32" s="17"/>
+      <c r="H32" s="16" t="s">
+        <v>1053</v>
+      </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G33" s="9">
         <v>28</v>
       </c>
-      <c r="H33" s="17"/>
+      <c r="H33" s="16" t="s">
+        <v>1054</v>
+      </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
     </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G34" s="9">
         <v>29</v>
       </c>
-      <c r="H34" s="17"/>
+      <c r="H34" s="16" t="s">
+        <v>1063</v>
+      </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
     </row>
-    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G35" s="9">
         <v>30</v>
       </c>
-      <c r="H35" s="17"/>
+      <c r="H35" s="16" t="s">
+        <v>1064</v>
+      </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -10819,7 +10907,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15368,8 +15456,8 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15496,19 +15584,27 @@
         <v>882</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>955</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>956</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="17"/>
+      <c r="C11" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>1056</v>
+      </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
     </row>

--- a/4_Daily Schedule/Daily_Schedule.xlsx
+++ b/4_Daily Schedule/Daily_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2023/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="14_{FB116758-B9B5-462E-BDDC-02E6CF788C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44DDE950-A671-4052-897E-37541E76164E}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="14_{FB116758-B9B5-462E-BDDC-02E6CF788C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585107AE-9252-419E-A4E6-3696AB764B4C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principles" sheetId="2" r:id="rId1"/>
@@ -28,19 +28,20 @@
     <sheet name="March" sheetId="20" state="hidden" r:id="rId13"/>
     <sheet name="April" sheetId="21" state="hidden" r:id="rId14"/>
     <sheet name="May" sheetId="22" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId16"/>
-    <sheet name="August" sheetId="1" state="hidden" r:id="rId17"/>
-    <sheet name="September" sheetId="5" state="hidden" r:id="rId18"/>
-    <sheet name="October" sheetId="10" state="hidden" r:id="rId19"/>
-    <sheet name="November" sheetId="12" state="hidden" r:id="rId20"/>
-    <sheet name="December" sheetId="13" state="hidden" r:id="rId21"/>
+    <sheet name="June" sheetId="23" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId17"/>
+    <sheet name="August" sheetId="1" state="hidden" r:id="rId18"/>
+    <sheet name="September" sheetId="5" state="hidden" r:id="rId19"/>
+    <sheet name="October" sheetId="10" state="hidden" r:id="rId20"/>
+    <sheet name="November" sheetId="12" state="hidden" r:id="rId21"/>
+    <sheet name="December" sheetId="13" state="hidden" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Family_Dates!$D$2:$F$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Network!$I$13:$K$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">November!$F$1:$I$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">October!$H$3:$L$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">September!$D$4:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">November!$F$1:$I$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">October!$H$3:$L$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">September!$D$4:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="1070">
   <si>
     <t>Date</t>
   </si>
@@ -4364,6 +4365,29 @@
     <t>Scaler class - DP2
 Scaler AM, HW
 Scaler class - DP3</t>
+  </si>
+  <si>
+    <t>Scaler DP 4
+Scaler AM, HW
+Delegation - Book</t>
+  </si>
+  <si>
+    <t>Scaler - Graphs
+Abdul Bari - BFS,DFS
+Dinesh Viryani - Graphs</t>
+  </si>
+  <si>
+    <t>Regression Jobs - WD
+Meetings</t>
+  </si>
+  <si>
+    <t>Scaler DP 5
+Scaler AM, HW
+Graphs AM, HW</t>
+  </si>
+  <si>
+    <t>Scaler DP 6
+DP 6 AM, HW</t>
   </si>
 </sst>
 </file>
@@ -7574,10 +7598,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA40D7B9-FF0A-4DFE-A2CD-5212DD0FD24D}">
   <dimension ref="G1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7998,11 +8022,13 @@
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
     </row>
-    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G36" s="9">
         <v>31</v>
       </c>
-      <c r="H36" s="17"/>
+      <c r="H36" s="16" t="s">
+        <v>1065</v>
+      </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
@@ -8013,6 +8039,416 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CCFFEE-AD4F-4998-9FF8-BEBE406919BA}">
+  <dimension ref="G1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3" spans="7:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1"/>
+      <c r="H3" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="16" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="4" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G4" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>638</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="5" spans="7:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="7:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G10" s="9">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G11" s="9">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G12" s="9">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G13" s="9">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G14" s="9">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G15" s="9">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G16" s="9">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G17" s="9">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G18" s="9">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G19" s="9">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G20" s="9">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G21" s="9">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G22" s="9">
+        <v>18</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G23" s="9">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G24" s="9">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G25" s="9">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="9">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G27" s="9">
+        <v>23</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G28" s="9">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G29" s="9">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G30" s="9">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G31" s="9">
+        <v>27</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G32" s="9">
+        <v>28</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="9">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="9">
+        <v>30</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C589C0-B05A-4DDE-965C-9ED5A6D2080F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8026,7 +8462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:F35"/>
   <sheetViews>
@@ -8403,7 +8839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB56A91C-BB34-4FBE-9778-8C93E26D0355}">
   <dimension ref="B4:H34"/>
   <sheetViews>
@@ -8901,492 +9337,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C650BB2-D140-403B-8898-95FB90824DA8}">
-  <dimension ref="C3:L34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="35.77734375" customWidth="1"/>
-    <col min="10" max="10" width="35.44140625" customWidth="1"/>
-    <col min="11" max="11" width="35.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="8:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H4" s="8">
-        <v>44835</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H5" s="8">
-        <v>44836</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="L5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H6" s="8">
-        <v>44837</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="L6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H7" s="8">
-        <v>44838</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="L7" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H8" s="8">
-        <v>44839</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H9" s="8">
-        <v>44840</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H10" s="8">
-        <v>44841</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="L10" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H11" s="8">
-        <v>44842</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="L11" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H12" s="8">
-        <v>44843</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="L12" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H13" s="8">
-        <v>44844</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H14" s="8">
-        <v>44845</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H15" s="8">
-        <v>44846</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H16" s="8">
-        <v>44847</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H17" s="8">
-        <v>44848</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H18" s="8">
-        <v>44849</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="39"/>
-      <c r="H19" s="8">
-        <v>44850</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="39"/>
-      <c r="H20" s="8">
-        <v>44851</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H21" s="8">
-        <v>44852</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H22" s="8">
-        <v>44853</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H23" s="8">
-        <v>44854</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H24" s="8">
-        <v>44855</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H25" s="8">
-        <v>44856</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H26" s="8">
-        <v>44857</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H27" s="8">
-        <v>44858</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H28" s="8">
-        <v>44859</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H29" s="8">
-        <v>44860</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H30" s="8">
-        <v>44861</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H31" s="8">
-        <v>44862</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H32" s="8">
-        <v>44863</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H33" s="8">
-        <v>44864</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H34" s="8">
-        <v>44865</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="9">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="H3:L34" xr:uid="{6C650BB2-D140-403B-8898-95FB90824DA8}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10005,6 +9955,492 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C650BB2-D140-403B-8898-95FB90824DA8}">
+  <dimension ref="C3:L34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="35.77734375" customWidth="1"/>
+    <col min="10" max="10" width="35.44140625" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="8:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H4" s="8">
+        <v>44835</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H5" s="8">
+        <v>44836</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H6" s="8">
+        <v>44837</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H7" s="8">
+        <v>44838</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H8" s="8">
+        <v>44839</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H9" s="8">
+        <v>44840</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H10" s="8">
+        <v>44841</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H11" s="8">
+        <v>44842</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H12" s="8">
+        <v>44843</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H13" s="8">
+        <v>44844</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H14" s="8">
+        <v>44845</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H15" s="8">
+        <v>44846</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H16" s="8">
+        <v>44847</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H17" s="8">
+        <v>44848</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H18" s="8">
+        <v>44849</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="39"/>
+      <c r="H19" s="8">
+        <v>44850</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="39"/>
+      <c r="H20" s="8">
+        <v>44851</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H21" s="8">
+        <v>44852</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H22" s="8">
+        <v>44853</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H23" s="8">
+        <v>44854</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H24" s="8">
+        <v>44855</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H25" s="8">
+        <v>44856</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H26" s="8">
+        <v>44857</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H27" s="8">
+        <v>44858</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H28" s="8">
+        <v>44859</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H29" s="8">
+        <v>44860</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H30" s="8">
+        <v>44861</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H31" s="8">
+        <v>44862</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H32" s="8">
+        <v>44863</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H33" s="8">
+        <v>44864</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H34" s="8">
+        <v>44865</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="H3:L34" xr:uid="{6C650BB2-D140-403B-8898-95FB90824DA8}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0711C60-6686-40C5-A9B5-057F5E0CC9FE}">
   <dimension ref="E1:I31"/>
   <sheetViews>
@@ -10494,7 +10930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5A071E-9330-4862-B422-922D31A2128F}">
   <dimension ref="E1:I32"/>
   <sheetViews>
@@ -10907,7 +11343,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/4_Daily Schedule/Daily_Schedule.xlsx
+++ b/4_Daily Schedule/Daily_Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2023/4_Daily Schedule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gangigua\OneDrive - Automatic Data Processing Inc\Documents\2022\Amar_2023\4_Daily Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="14_{FB116758-B9B5-462E-BDDC-02E6CF788C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585107AE-9252-419E-A4E6-3696AB764B4C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7B7549-C47C-4501-9273-8E0B7B8F1F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1071">
   <si>
     <t>Date</t>
   </si>
@@ -4386,8 +4386,16 @@
 Graphs AM, HW</t>
   </si>
   <si>
-    <t>Scaler DP 6
-DP 6 AM, HW</t>
+    <t>Scaler class DP 6
+DP 6 AM, HW
+Class Graphs 2
+Graphs 2 AM, HW</t>
+  </si>
+  <si>
+    <t>DP 7 class
+DP 7 AM, HW
+Graphs 3 class
+Graphs 3 AM, HW</t>
   </si>
 </sst>
 </file>
@@ -5092,10 +5100,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8045,7 +8049,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8140,7 +8144,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="G7" s="9">
         <v>3</v>
       </c>
@@ -8151,11 +8155,13 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="G8" s="9">
         <v>4</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="18" t="s">
+        <v>1070</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
